--- a/biology/Médecine/Charles_Gabriel_Seligman/Charles_Gabriel_Seligman.xlsx
+++ b/biology/Médecine/Charles_Gabriel_Seligman/Charles_Gabriel_Seligman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Gabriel Seligman (1873-1940) est un anthropologue britannique, médecin et chercheur en pathologie médicale à l'origine. Il est principalement connu pour sa théorie sur les Hamites selon laquelle tout ce qui a une valeur en Afrique y a été apporté par les Hamites, une variante de la « race blanche ». 
 </t>
@@ -511,7 +523,9 @@
           <t>Théorie hamitique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son célèbre ouvrage Races of Africa paru en 1930, Charles Seligman formula la théorie hamitique comme suit : « Les civilisations de l'Afrique sont les civilisations des Hamites... Les migrants hamites étaient des Caucasoïdes pastoraux, arrivés vagues par vagues, mieux armés et d'esprit plus vif que les agriculteurs nègres à peau sombre ».
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Melanesians of British New Guinea (1910)
 en collaboration avec sa femme Brenda Zara Seligman : The Veddas (1911)
